--- a/syllabus/202-syllabus.xlsx
+++ b/syllabus/202-syllabus.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20412"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27240" windowHeight="19240" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14980" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="90">
   <si>
     <t xml:space="preserve"> Mon 01-13</t>
   </si>
@@ -289,12 +289,6 @@
   </si>
   <si>
     <t>Homework 1</t>
-  </si>
-  <si>
-    <t>Homework 6</t>
-  </si>
-  <si>
-    <t>Reflection 6</t>
   </si>
 </sst>
 </file>
@@ -307,6 +301,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -387,8 +382,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -426,7 +423,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -434,6 +431,7 @@
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -441,6 +439,7 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -775,8 +774,8 @@
   </sheetPr>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1286,9 +1285,7 @@
       <c r="E27" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="F27" s="1"/>
       <c r="G27" s="1" t="s">
         <v>68</v>
       </c>
@@ -1366,9 +1363,6 @@
         <v>49</v>
       </c>
       <c r="E31" s="1"/>
-      <c r="F31" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:9" ht="18" customHeight="1">
@@ -1385,8 +1379,8 @@
         <v>49</v>
       </c>
       <c r="E32" s="1"/>
-      <c r="F32" s="4" t="s">
-        <v>91</v>
+      <c r="F32" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="G32" s="1"/>
     </row>

--- a/syllabus/202-syllabus.xlsx
+++ b/syllabus/202-syllabus.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="89">
   <si>
     <t xml:space="preserve"> Mon 01-13</t>
   </si>
@@ -172,9 +172,6 @@
   </si>
   <si>
     <t>Statistics</t>
-  </si>
-  <si>
-    <t>Optimization</t>
   </si>
   <si>
     <t>Stocks and flows</t>
@@ -301,7 +298,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -775,7 +771,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -806,7 +802,7 @@
         <v>33</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>32</v>
@@ -853,7 +849,7 @@
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -929,7 +925,7 @@
         <v>43</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G8" s="4"/>
     </row>
@@ -967,7 +963,7 @@
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G10" s="4"/>
     </row>
@@ -1003,10 +999,10 @@
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="18" customHeight="1">
@@ -1023,7 +1019,7 @@
         <v>34</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -1039,11 +1035,11 @@
         <v>11</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -1061,11 +1057,11 @@
         <v>35</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1">
@@ -1082,10 +1078,10 @@
         <v>35</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G16" s="6"/>
     </row>
@@ -1103,7 +1099,7 @@
         <v>48</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -1119,12 +1115,12 @@
         <v>15</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="18" customHeight="1">
@@ -1138,7 +1134,7 @@
         <v>16</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1149,7 +1145,7 @@
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -1166,10 +1162,10 @@
         <v>17</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -1185,14 +1181,14 @@
         <v>18</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="18" customHeight="1">
@@ -1200,7 +1196,7 @@
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -1217,13 +1213,13 @@
         <v>19</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="8"/>
@@ -1240,14 +1236,14 @@
         <v>20</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="18" customHeight="1">
@@ -1265,7 +1261,7 @@
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G26" s="1"/>
     </row>
@@ -1283,11 +1279,11 @@
         <v>50</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="18" customHeight="1">
@@ -1304,10 +1300,10 @@
         <v>50</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G28" s="1"/>
     </row>
@@ -1327,7 +1323,7 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="18" customHeight="1">
@@ -1345,7 +1341,7 @@
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G30" s="1"/>
     </row>
@@ -1380,7 +1376,7 @@
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G32" s="1"/>
     </row>
